--- a/biology/Botanique/Arbres_menacés/Arbres_menacés.xlsx
+++ b/biology/Botanique/Arbres_menacés/Arbres_menacés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arbres_menac%C3%A9s</t>
+          <t>Arbres_menacés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article a pour but de recenser les arbres menacés dont ceux reconnus comme tels, à échelle planétaire, par la communauté internationale (via la Convention sur le commerce international des espèces de faune et de flore sauvages menacées d'extinction (CITES) ou la liste rouge de l'UICN établie par l'Union internationale pour la conservation de la nature (UICN).
 Les menaces sont de natures variées et immédiates et/ou différées dans l'espace et dans le temps. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arbres_menac%C3%A9s</t>
+          <t>Arbres_menacés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude de l'association Botanic Gardens Conservation International (BGCI), daté de septembre 2021, un tiers des arbres de la planète sont menacés d'extinction, spécifiquement au Brésil, en raison de l'agriculture intensive et du réchauffement climatique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude de l'association Botanic Gardens Conservation International (BGCI), daté de septembre 2021, un tiers des arbres de la planète sont menacés d'extinction, spécifiquement au Brésil, en raison de l'agriculture intensive et du réchauffement climatique.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arbres_menac%C3%A9s</t>
+          <t>Arbres_menacés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Protection internationale par la CITES</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La CITES, début 2007 a classé les espèces dans trois annexes :
 L'Annexe I (Commerce interdit) comprend :
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arbres_menac%C3%A9s</t>
+          <t>Arbres_menacés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,8 +607,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">France
-Le peuplier noir est au bord de l'extinction ou a disparu dans de nombreuses régions et il est en Europe à la fois victime d'extinction de ses populations naturelles et d'une érosion génétique [2].
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le peuplier noir est au bord de l'extinction ou a disparu dans de nombreuses régions et il est en Europe à la fois victime d'extinction de ses populations naturelles et d'une érosion génétique .
 L'orme a beaucoup souffert de la graphiose de l'orme qui lui a fait perdre beaucoup de sa diversité génétique
 De nombreuses espèces (locales ou introduites) sont victimes de maladies émergentes (phytopathologies), sans toutefois être déjà considérées comme réellement menacées.
 Certains craignent qu'un réchauffement climatique trop brutal ne cause la régression ou disparition de certaines essences (Hêtre commun par exemple) de tout ou partie des régions de France.
@@ -606,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arbres_menac%C3%A9s</t>
+          <t>Arbres_menacés</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -624,7 +645,9 @@
           <t>Afrique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Moabi, Cupressus dupreziana A. Camus 1926. Afrique du nord, Afrique centrale.
 Cèdre du Cap, Widdringtonia cedarbergensis.</t>
@@ -637,7 +660,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Arbres_menac%C3%A9s</t>
+          <t>Arbres_menacés</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -656,6 +679,8 @@
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -663,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Arbres_menac%C3%A9s</t>
+          <t>Arbres_menacés</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -681,7 +706,9 @@
           <t>Amérique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Paubrasilia echinata
 Araucaria du Chili
